--- a/TCC/APS/CasosUso/1.3_Doc_CasoUso_CadastrarVagas_ExcluirCadastro.xlsx
+++ b/TCC/APS/CasosUso/1.3_Doc_CasoUso_CadastrarVagas_ExcluirCadastro.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Etec\TCC\APS\CasosUso\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFE5038-CA72-4752-8612-9C2216713A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,74 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Nome do caso de uso</t>
+  </si>
+  <si>
+    <t>Ator Principal</t>
+  </si>
+  <si>
+    <t>Atores Segundarios</t>
+  </si>
+  <si>
+    <t>Funcionarios</t>
+  </si>
+  <si>
+    <t>Resumo</t>
+  </si>
+  <si>
+    <t>Pré-Condições</t>
+  </si>
+  <si>
+    <t>Pós-Condições</t>
+  </si>
+  <si>
+    <t>É necessario preencher todo o cadastro</t>
+  </si>
+  <si>
+    <t>Fluxo Principal</t>
+  </si>
+  <si>
+    <t>Ações do ator</t>
+  </si>
+  <si>
+    <t>Ações do Sistema</t>
+  </si>
+  <si>
+    <t>Inserir o identificador e senha, clicar em login e entrar no sistema</t>
+  </si>
+  <si>
+    <t>Validar o identificador e senha, conferir com o banco de dados e se corresponder permitir o acesso a intranet</t>
+  </si>
+  <si>
+    <t>Restrições/Validações</t>
+  </si>
+  <si>
+    <t>1. Precisar ter o cadastro</t>
+  </si>
+  <si>
+    <t>2. É necessario digitar o identificador e senha correta</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Cadastrar Vagas</t>
+  </si>
+  <si>
+    <t>Este caso de uso descreve o cadastro da vaga morador na intranet condMind</t>
+  </si>
+  <si>
+    <t>Necessário o morador possuir cadastro</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +99,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -45,12 +135,123 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +531,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="4:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="5"/>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D12:D14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TCC/APS/CasosUso/1.3_Doc_CasoUso_CadastrarVagas_ExcluirCadastro.xlsx
+++ b/TCC/APS/CasosUso/1.3_Doc_CasoUso_CadastrarVagas_ExcluirCadastro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Etec\TCC\APS\CasosUso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFE5038-CA72-4752-8612-9C2216713A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7FDDB6-63BD-4C54-BA65-258484860691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Nome do caso de uso</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Atores Segundarios</t>
   </si>
   <si>
-    <t>Funcionarios</t>
-  </si>
-  <si>
     <t>Resumo</t>
   </si>
   <si>
@@ -60,21 +57,12 @@
     <t>Ações do Sistema</t>
   </si>
   <si>
-    <t>Inserir o identificador e senha, clicar em login e entrar no sistema</t>
-  </si>
-  <si>
-    <t>Validar o identificador e senha, conferir com o banco de dados e se corresponder permitir o acesso a intranet</t>
-  </si>
-  <si>
     <t>Restrições/Validações</t>
   </si>
   <si>
     <t>1. Precisar ter o cadastro</t>
   </si>
   <si>
-    <t>2. É necessario digitar o identificador e senha correta</t>
-  </si>
-  <si>
     <t>Sistema</t>
   </si>
   <si>
@@ -85,6 +73,33 @@
   </si>
   <si>
     <t>Necessário o morador possuir cadastro</t>
+  </si>
+  <si>
+    <t>Inserir no banco de dados informações e validar vaga do morador</t>
+  </si>
+  <si>
+    <t>Cadastrar a vaga do morador no sistema</t>
+  </si>
+  <si>
+    <t>Funcionários</t>
+  </si>
+  <si>
+    <t>2. Morador precisa estar em contrato vigente</t>
+  </si>
+  <si>
+    <t>Excluir cadastro</t>
+  </si>
+  <si>
+    <t>Excluir a vaga do morador.</t>
+  </si>
+  <si>
+    <t>Excluir no banco de dados informações do morador na vaga em que estava inserido</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Necessário o morador possuir cadastro.                                               </t>
+  </si>
+  <si>
+    <t>2. Morador solicitar exclusão/ Fim do contrato.</t>
   </si>
 </sst>
 </file>
@@ -127,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,37 +151,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -180,77 +165,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E14"/>
+  <dimension ref="B3:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,100 +478,164 @@
     <col min="2" max="3" width="9.140625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="35.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="4:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="G8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="4"/>
+      <c r="G9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="4:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="4:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="4:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="5"/>
       <c r="E13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="4:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D12:D14"/>
+    <mergeCell ref="G12:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
